--- a/Template+SEO+analysis.xlsx
+++ b/Template+SEO+analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Users\Enjoy\Documents\GitHub\Project-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7DFFA7-5974-410A-87FE-F6178B58E52F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3336955-CA7F-4371-BE33-C526BB05490B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="3090" windowWidth="21600" windowHeight="11385" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
+    <workbookView xWindow="-30" yWindow="1740" windowWidth="23895" windowHeight="12375" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>Explanation</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Accessibility</t>
   </si>
   <si>
-    <t>Picture(Atlanta)</t>
-  </si>
-  <si>
     <t>Simantic</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>wrong</t>
   </si>
   <si>
-    <t>Height="40"</t>
-  </si>
-  <si>
     <t>Width="100"</t>
   </si>
   <si>
@@ -126,13 +120,137 @@
     <t>Missed Li description</t>
   </si>
   <si>
-    <t>missing description</t>
-  </si>
-  <si>
     <t>Hiden words(Line 249)</t>
   </si>
   <si>
     <t>Delete</t>
+  </si>
+  <si>
+    <t>line2</t>
+  </si>
+  <si>
+    <t>lang="default"</t>
+  </si>
+  <si>
+    <t>Height="40" /</t>
+  </si>
+  <si>
+    <t>Picture(Atlanta) Line 40</t>
+  </si>
+  <si>
+    <t>Picture(Atlanta) Line69</t>
+  </si>
+  <si>
+    <t>line55</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>page2</t>
+  </si>
+  <si>
+    <t>Line251/260/274</t>
+  </si>
+  <si>
+    <t>missing tags for Partners/Directories</t>
+  </si>
+  <si>
+    <t>add tag. &lt;p&gt;</t>
+  </si>
+  <si>
+    <t>Responsive mode socials shows in column</t>
+  </si>
+  <si>
+    <t>change social to row.</t>
+  </si>
+  <si>
+    <t>change default to lang which is used</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;</t>
+  </si>
+  <si>
+    <t>main,section,articles</t>
+  </si>
+  <si>
+    <t>add dimentions (px or other) and transfere it to styles.css</t>
+  </si>
+  <si>
+    <t>Change to more visible colors</t>
+  </si>
+  <si>
+    <t>make it bigger for the people with disabilities</t>
+  </si>
+  <si>
+    <t>add your correct links to your socials.</t>
+  </si>
+  <si>
+    <t>transfere &lt;styles&gt;from html into style.css</t>
+  </si>
+  <si>
+    <t>Renamed to Contact Me</t>
+  </si>
+  <si>
+    <t>SEO/Accessibility</t>
+  </si>
+  <si>
+    <t>Change from image to tag &lt;p&gt; &lt;h1&gt; etc.</t>
+  </si>
+  <si>
+    <t>Images Title.png, Quote.png, title2.png</t>
+  </si>
+  <si>
+    <t>In responsive mode Title,Title2,Quote goes outside of 
+resolution, and a words like "Atlanta design local business" can be used for SEO.</t>
+  </si>
+  <si>
+    <t>Page2</t>
+  </si>
+  <si>
+    <t>missing description, Page2 as well.</t>
+  </si>
+  <si>
+    <t>change to GoMike Designs, Contact Me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigation bar in full mode isnt show correctly. </t>
+  </si>
+  <si>
+    <t>page2 PHP</t>
+  </si>
+  <si>
+    <t>FAIl</t>
+  </si>
+  <si>
+    <t>Missing inside html script or link for php</t>
+  </si>
+  <si>
+    <t>Page2 Footer</t>
+  </si>
+  <si>
+    <t>Socials inside Footer not displayed</t>
+  </si>
+  <si>
+    <t>&lt;link&gt; &lt;script&gt; error was not write correctly</t>
+  </si>
+  <si>
+    <t>relink .css .js to correct files.</t>
+  </si>
+  <si>
+    <t>Accessibility issue #24</t>
+  </si>
+  <si>
+    <t>Accessibility Issue #24</t>
+  </si>
+  <si>
+    <t>ScrollToTop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change to lower resolution </t>
+  </si>
+  <si>
+    <t>Hiden because of opacity = 0 &gt; opacity =1</t>
   </si>
 </sst>
 </file>
@@ -190,11 +308,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,18 +631,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21008D1C-867F-FF4D-8036-BD2682FF7900}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="43.375" customWidth="1"/>
-    <col min="5" max="5" width="43.875" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="62.125" customWidth="1"/>
+    <col min="5" max="5" width="49.75" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -558,10 +679,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -575,7 +699,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -583,13 +710,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -597,13 +727,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -611,13 +744,16 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
+      <c r="E7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -625,13 +761,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -639,13 +778,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -653,13 +795,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -667,13 +812,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,16 +829,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -698,13 +846,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -712,13 +863,183 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Template+SEO+analysis.xlsx
+++ b/Template+SEO+analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Users\Enjoy\Documents\GitHub\Project-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3336955-CA7F-4371-BE33-C526BB05490B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9AE852-9269-4764-9250-DF62C22FBA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="1740" windowWidth="23895" windowHeight="12375" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
+    <workbookView xWindow="3540" yWindow="1530" windowWidth="23895" windowHeight="12375" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>Explanation</t>
   </si>
@@ -251,6 +251,15 @@
   </si>
   <si>
     <t>Hiden because of opacity = 0 &gt; opacity =1</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>encode images atlanta%20web%20….</t>
+  </si>
+  <si>
+    <t>clear</t>
   </si>
 </sst>
 </file>
@@ -631,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21008D1C-867F-FF4D-8036-BD2682FF7900}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1042,6 +1051,23 @@
         <v>67</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Template+SEO+analysis.xlsx
+++ b/Template+SEO+analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Users\Enjoy\Documents\GitHub\Project-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9AE852-9269-4764-9250-DF62C22FBA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7E251A-2EE7-42B9-B937-70B186A2B452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1530" windowWidth="23895" windowHeight="12375" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
+    <workbookView xWindow="28830" yWindow="0" windowWidth="26070" windowHeight="14025" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
   <si>
     <t>Explanation</t>
   </si>
@@ -84,18 +84,9 @@
     <t>contain only div's</t>
   </si>
   <si>
-    <t>29MB</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>Width="100"</t>
   </si>
   <si>
-    <t>Picture(Atlanta) Orange</t>
-  </si>
-  <si>
     <t>Page 1-2</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>Missed Li description</t>
   </si>
   <si>
-    <t>Hiden words(Line 249)</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
@@ -162,12 +150,6 @@
     <t>Responsive mode socials shows in column</t>
   </si>
   <si>
-    <t>change social to row.</t>
-  </si>
-  <si>
-    <t>change default to lang which is used</t>
-  </si>
-  <si>
     <t>&lt;!DOCTYPE html&gt;</t>
   </si>
   <si>
@@ -177,9 +159,6 @@
     <t>add dimentions (px or other) and transfere it to styles.css</t>
   </si>
   <si>
-    <t>Change to more visible colors</t>
-  </si>
-  <si>
     <t>make it bigger for the people with disabilities</t>
   </si>
   <si>
@@ -187,9 +166,6 @@
   </si>
   <si>
     <t>transfere &lt;styles&gt;from html into style.css</t>
-  </si>
-  <si>
-    <t>Renamed to Contact Me</t>
   </si>
   <si>
     <t>SEO/Accessibility</t>
@@ -229,21 +205,9 @@
     <t>Page2 Footer</t>
   </si>
   <si>
-    <t>Socials inside Footer not displayed</t>
-  </si>
-  <si>
     <t>&lt;link&gt; &lt;script&gt; error was not write correctly</t>
   </si>
   <si>
-    <t>relink .css .js to correct files.</t>
-  </si>
-  <si>
-    <t>Accessibility issue #24</t>
-  </si>
-  <si>
-    <t>Accessibility Issue #24</t>
-  </si>
-  <si>
     <t>ScrollToTop</t>
   </si>
   <si>
@@ -259,7 +223,53 @@
     <t>encode images atlanta%20web%20….</t>
   </si>
   <si>
-    <t>clear</t>
+    <t>Pictures</t>
+  </si>
+  <si>
+    <t>29MB,1.5MB etc.</t>
+  </si>
+  <si>
+    <t>must be &gt;</t>
+  </si>
+  <si>
+    <t>relink .css .js to the correct files.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiden words(Line 249) "Black hat" </t>
+  </si>
+  <si>
+    <t>SEO(Performance)</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>change default to lang which is used lang="en"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%20 it using mostly for URL, so changed for underline </t>
+  </si>
+  <si>
+    <t>Check links and script to make sure if every links is correct
+if yes, then need to rework CSS and JS.</t>
+  </si>
+  <si>
+    <t>Socials inside Footer not displayed Page2</t>
+  </si>
+  <si>
+    <t>Socials</t>
+  </si>
+  <si>
+    <t>There is missing name for it, it hard to search and compile with google</t>
+  </si>
+  <si>
+    <t>add aria's for make it more clear.</t>
+  </si>
+  <si>
+    <t>Renamed to Contact Me in HTML and a file to not be confused.</t>
+  </si>
+  <si>
+    <t>change social to row in responsive mode.</t>
   </si>
 </sst>
 </file>
@@ -640,18 +650,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21008D1C-867F-FF4D-8036-BD2682FF7900}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
     <col min="4" max="4" width="62.125" customWidth="1"/>
-    <col min="5" max="5" width="49.75" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -691,10 +701,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,32 +718,32 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -745,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -762,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -770,16 +780,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -787,16 +797,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -804,16 +814,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -821,16 +831,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,10 +854,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -855,16 +865,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -872,13 +882,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -886,16 +896,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -903,16 +913,16 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -920,16 +930,16 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,44 +953,44 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -988,50 +998,50 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,16 +1049,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" t="s">
         <v>66</v>
-      </c>
-      <c r="E24" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1056,16 +1066,33 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
         <v>74</v>
       </c>
-      <c r="E25" t="s">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>75</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Template+SEO+analysis.xlsx
+++ b/Template+SEO+analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Users\Enjoy\Documents\GitHub\Project-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7E251A-2EE7-42B9-B937-70B186A2B452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BFC621-587D-452B-81B2-5C2E31344773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="0" windowWidth="26070" windowHeight="14025" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
+    <workbookView xWindow="29595" yWindow="1185" windowWidth="26070" windowHeight="14025" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
   <si>
     <t>Explanation</t>
   </si>
@@ -99,18 +99,12 @@
     <t>no links for socialmedia</t>
   </si>
   <si>
-    <t>Line 39-41</t>
-  </si>
-  <si>
     <t>Styles in html</t>
   </si>
   <si>
     <t>Line 49-56</t>
   </si>
   <si>
-    <t>Missed Li description</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
   </si>
   <si>
     <t>add your correct links to your socials.</t>
-  </si>
-  <si>
-    <t>transfere &lt;styles&gt;from html into style.css</t>
   </si>
   <si>
     <t>SEO/Accessibility</t>
@@ -235,13 +226,7 @@
     <t>relink .css .js to the correct files.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hiden words(Line 249) "Black hat" </t>
-  </si>
-  <si>
     <t>SEO(Performance)</t>
-  </si>
-  <si>
-    <t>Contrast</t>
   </si>
   <si>
     <t>change default to lang which is used lang="en"</t>
@@ -263,13 +248,38 @@
     <t>There is missing name for it, it hard to search and compile with google</t>
   </si>
   <si>
-    <t>add aria's for make it more clear.</t>
-  </si>
-  <si>
     <t>Renamed to Contact Me in HTML and a file to not be confused.</t>
   </si>
   <si>
     <t>change social to row in responsive mode.</t>
+  </si>
+  <si>
+    <t>add aria's for make it more clear with machine-read semantic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiden words "Black hat" </t>
+  </si>
+  <si>
+    <t>Footer Line 249-41-39</t>
+  </si>
+  <si>
+    <t>transfer &lt;styles&gt; from html into style.css</t>
+  </si>
+  <si>
+    <t>Line 39-41-40-69</t>
+  </si>
+  <si>
+    <t>add bigger difference in contrast</t>
+  </si>
+  <si>
+    <t>Remove lines</t>
+  </si>
+  <si>
+    <t>Missed Li description or tag of filling</t>
+  </si>
+  <si>
+    <t>Check links and script to make sure if every links is correct
+if yes, then need to rework CSS and JS. (no server)</t>
   </si>
 </sst>
 </file>
@@ -652,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21008D1C-867F-FF4D-8036-BD2682FF7900}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -701,10 +711,10 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,32 +728,32 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -755,7 +765,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -772,7 +782,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -780,16 +790,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -797,7 +807,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -806,7 +816,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -823,7 +833,7 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -840,7 +850,7 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -848,16 +858,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -865,16 +875,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -882,13 +892,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -896,16 +909,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,16 +926,16 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -930,16 +943,16 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -953,27 +966,27 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -981,16 +994,16 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>52</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -998,16 +1011,16 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1015,16 +1028,16 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
@@ -1032,16 +1045,16 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1049,16 +1062,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1066,33 +1079,33 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Template+SEO+analysis.xlsx
+++ b/Template+SEO+analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Users\Enjoy\Documents\GitHub\Project-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BFC621-587D-452B-81B2-5C2E31344773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A175BBC-F6C9-40FC-848E-1672EB490565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29595" yWindow="1185" windowWidth="26070" windowHeight="14025" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
+    <workbookView xWindow="29430" yWindow="825" windowWidth="27825" windowHeight="12240" xr2:uid="{F4D0CAC2-2123-1946-879C-AB8072365C64}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
   <si>
     <t>Explanation</t>
   </si>
@@ -63,30 +63,15 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>!doctype</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
     <t>Accessibility</t>
   </si>
   <si>
-    <t>Simantic</t>
-  </si>
-  <si>
     <t>Footer</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>contain only div's</t>
-  </si>
-  <si>
-    <t>Width="100"</t>
-  </si>
-  <si>
     <t>Page 1-2</t>
   </si>
   <si>
@@ -96,9 +81,6 @@
     <t>SociaMedia</t>
   </si>
   <si>
-    <t>no links for socialmedia</t>
-  </si>
-  <si>
     <t>Styles in html</t>
   </si>
   <si>
@@ -111,12 +93,6 @@
     <t>line2</t>
   </si>
   <si>
-    <t>lang="default"</t>
-  </si>
-  <si>
-    <t>Height="40" /</t>
-  </si>
-  <si>
     <t>Picture(Atlanta) Line 40</t>
   </si>
   <si>
@@ -129,34 +105,10 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>page2</t>
-  </si>
-  <si>
     <t>Line251/260/274</t>
   </si>
   <si>
-    <t>missing tags for Partners/Directories</t>
-  </si>
-  <si>
-    <t>add tag. &lt;p&gt;</t>
-  </si>
-  <si>
     <t>Responsive mode socials shows in column</t>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE html&gt;</t>
-  </si>
-  <si>
-    <t>main,section,articles</t>
-  </si>
-  <si>
-    <t>add dimentions (px or other) and transfere it to styles.css</t>
-  </si>
-  <si>
-    <t>make it bigger for the people with disabilities</t>
-  </si>
-  <si>
-    <t>add your correct links to your socials.</t>
   </si>
   <si>
     <t>SEO/Accessibility</t>
@@ -175,12 +127,6 @@
     <t>Page2</t>
   </si>
   <si>
-    <t>missing description, Page2 as well.</t>
-  </si>
-  <si>
-    <t>change to GoMike Designs, Contact Me.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Navigation bar in full mode isnt show correctly. </t>
   </si>
   <si>
@@ -202,34 +148,16 @@
     <t>ScrollToTop</t>
   </si>
   <si>
-    <t xml:space="preserve">change to lower resolution </t>
-  </si>
-  <si>
     <t>Hiden because of opacity = 0 &gt; opacity =1</t>
   </si>
   <si>
     <t>Images</t>
   </si>
   <si>
-    <t>encode images atlanta%20web%20….</t>
-  </si>
-  <si>
     <t>Pictures</t>
   </si>
   <si>
     <t>29MB,1.5MB etc.</t>
-  </si>
-  <si>
-    <t>must be &gt;</t>
-  </si>
-  <si>
-    <t>relink .css .js to the correct files.</t>
-  </si>
-  <si>
-    <t>SEO(Performance)</t>
-  </si>
-  <si>
-    <t>change default to lang which is used lang="en"</t>
   </si>
   <si>
     <t xml:space="preserve">%20 it using mostly for URL, so changed for underline </t>
@@ -251,25 +179,13 @@
     <t>Renamed to Contact Me in HTML and a file to not be confused.</t>
   </si>
   <si>
-    <t>change social to row in responsive mode.</t>
-  </si>
-  <si>
-    <t>add aria's for make it more clear with machine-read semantic</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hiden words "Black hat" </t>
   </si>
   <si>
     <t>Footer Line 249-41-39</t>
   </si>
   <si>
-    <t>transfer &lt;styles&gt; from html into style.css</t>
-  </si>
-  <si>
     <t>Line 39-41-40-69</t>
-  </si>
-  <si>
-    <t>add bigger difference in contrast</t>
   </si>
   <si>
     <t>Remove lines</t>
@@ -280,13 +196,133 @@
   <si>
     <t>Check links and script to make sure if every links is correct
 if yes, then need to rework CSS and JS. (no server)</t>
+  </si>
+  <si>
+    <t>Semantic</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/en/courses/3594061-drive-traffic-to-your-website-with-search-engine-optimization-seo/5838041-perform-an-audit-of-your-website#/id/r-5837989</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/en/courses/3594061-drive-traffic-to-your-website-with-search-engine-optimization-seo/5838041-perform-an-audit-of-your-website#/id/r-5877631</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/en/courses/3594061-drive-traffic-to-your-website-with-search-engine-optimization-seo/5838041-perform-an-audit-of-your-website#/id/r-5838027</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/en/courses/3594061-drive-traffic-to-your-website-with-search-engine-optimization-seo/5838156-optimize-the-content-of-your-web-pages#/id/r-5838108</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/en/courses/3594061-drive-traffic-to-your-website-with-search-engine-optimization-seo/5837442-build-your-roadmap#/id/r-5837379</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/en/courses/1306056-ensure-your-website-meets-technical-seo-requirements/6200684-think-mobile-first#/id/r-6200674</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/en/courses/1306056-ensure-your-website-meets-technical-seo-requirements/6201390-create-content-for-each-language#/id/r-6201360</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/en/courses/5265446-build-your-first-web-pages-with-html-and-css/5265716-create-content-using-html</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/en/courses/5265446-build-your-first-web-pages-with-html-and-css</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/en/courses/5295881-create-web-page-layouts-with-css/5341381-control-an-elements-width-and-height</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/en/courses/5265446-build-your-first-web-pages-with-html-and-css/5271266-understand-color-theory</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/en/courses/5295881-create-web-page-layouts-with-css</t>
+  </si>
+  <si>
+    <t>Shouldn’t content only div's</t>
+  </si>
+  <si>
+    <t>Color difference</t>
+  </si>
+  <si>
+    <t>Height="40" should not be used inside html</t>
+  </si>
+  <si>
+    <t>Width="100" should not be used inside html</t>
+  </si>
+  <si>
+    <t>No links for socialmedia</t>
+  </si>
+  <si>
+    <t>Lang="default"</t>
+  </si>
+  <si>
+    <t>Page2 should not be named like that.</t>
+  </si>
+  <si>
+    <t>Missing tags for Partners/Directories</t>
+  </si>
+  <si>
+    <t>Encode images atlanta%20web%20….</t>
+  </si>
+  <si>
+    <t>Missing description, Page2 as well.</t>
+  </si>
+  <si>
+    <t>Change to GoMike Designs, Contact Me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change to lower resolution </t>
+  </si>
+  <si>
+    <t>Main,section,articles</t>
+  </si>
+  <si>
+    <t>Add bigger difference in contrast</t>
+  </si>
+  <si>
+    <t>Add dimentions (px or other) and transfere it to styles.css</t>
+  </si>
+  <si>
+    <t>Make it bigger for the people with disabilities</t>
+  </si>
+  <si>
+    <t>Add your correct links to your socials.</t>
+  </si>
+  <si>
+    <t>Transfer &lt;styles&gt; from html into style.css</t>
+  </si>
+  <si>
+    <t>Change default to lang which is used lang="en"</t>
+  </si>
+  <si>
+    <t>Add tag. &lt;p&gt;</t>
+  </si>
+  <si>
+    <t>Change social to row in responsive mode.</t>
+  </si>
+  <si>
+    <t>Relink .css .js to the correct files.</t>
+  </si>
+  <si>
+    <t>Add aria's for make it more clear with machine-read semantic</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>There is a lot of repetetive words.</t>
+  </si>
+  <si>
+    <t>Machine search trying to search for the most relevant sources, but not an amount of words.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/en/courses/3594061-drive-traffic-to-your-website-with-search-engine-optimization-seo/5837697-begin-your-keyword-research</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -306,6 +342,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -334,10 +378,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -346,8 +391,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -662,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21008D1C-867F-FF4D-8036-BD2682FF7900}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -671,8 +718,8 @@
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="4" max="4" width="62.125" customWidth="1"/>
-    <col min="5" max="5" width="52" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="5" max="5" width="48.5" customWidth="1"/>
+    <col min="6" max="6" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -708,13 +755,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>77</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -722,118 +772,139 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>78</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>79</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>80</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>81</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>82</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>83</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,274 +912,344 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>84</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>51</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="E16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>73</v>
+        <v>92</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" location="/id/r-5837989" xr:uid="{1914A78A-3171-40DF-B3D4-83DCDC33528E}"/>
+    <hyperlink ref="F4" r:id="rId2" location="/id/r-5877631" xr:uid="{310D5543-475C-4DAF-AFD5-01C5599015EC}"/>
+    <hyperlink ref="F18" r:id="rId3" location="/id/r-5877631" xr:uid="{C4651005-0BFE-4CA9-8FCB-EFC86C164507}"/>
+    <hyperlink ref="F24" r:id="rId4" location="/id/r-5877631" xr:uid="{2049842A-F082-4F71-8012-230135A0EFC1}"/>
+    <hyperlink ref="F10" r:id="rId5" location="/id/r-5838027" xr:uid="{0B35B574-F68C-4BB4-959C-34282E8830C6}"/>
+    <hyperlink ref="F21" r:id="rId6" location="/id/r-5838027" xr:uid="{05DA0D63-4D38-4568-8464-DB6F2F6F9CD4}"/>
+    <hyperlink ref="F23" r:id="rId7" location="/id/r-5838027" xr:uid="{665A58B6-D844-4F7C-9F91-EF7B733092D0}"/>
+    <hyperlink ref="F25" r:id="rId8" location="/id/r-5838108" xr:uid="{7354A56A-FB7F-43A7-BB39-B96D89F512CD}"/>
+    <hyperlink ref="F19" r:id="rId9" location="/id/r-5838108" xr:uid="{8325FF5A-796A-419A-83AC-BC60513F5759}"/>
+    <hyperlink ref="F13" r:id="rId10" location="/id/r-5838108" xr:uid="{C5A95814-627B-4C9B-B0AC-D7CB0CA780FF}"/>
+    <hyperlink ref="F11" r:id="rId11" location="/id/r-5837379" xr:uid="{0DF8520F-7F31-4549-A71D-8523325EE24C}"/>
+    <hyperlink ref="F17" r:id="rId12" location="/id/r-6200674" xr:uid="{DAB79FF4-15EC-4EE0-B9AB-81A087E84FC0}"/>
+    <hyperlink ref="F14" r:id="rId13" location="/id/r-6201360" xr:uid="{9AEDE04E-28CE-448B-A1B4-75FDACFA6781}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{D47AD911-AAC5-46A6-A5B3-CFB0E05B0FA2}"/>
+    <hyperlink ref="F5" r:id="rId15" xr:uid="{B7CD60D4-2014-454B-A98F-C69E040E38E4}"/>
+    <hyperlink ref="F12" r:id="rId16" xr:uid="{A1CCDE4F-DCE8-41BF-9465-D10A14D9102C}"/>
+    <hyperlink ref="F7" r:id="rId17" xr:uid="{6C5A5B08-56A1-432B-9A69-7D0F4F5DB7AB}"/>
+    <hyperlink ref="F8" r:id="rId18" xr:uid="{A2CF52A6-D12A-489F-BD98-5F751B8F19D8}"/>
+    <hyperlink ref="F9" r:id="rId19" xr:uid="{4E2C45B5-2924-4C13-979F-AD8B818EF9E1}"/>
+    <hyperlink ref="F6" r:id="rId20" xr:uid="{D783CABF-6627-4AC8-A9D8-78CF4E62F899}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{94A74F24-2191-45D2-9AE6-ACBE3FA7D829}"/>
+    <hyperlink ref="F15" r:id="rId22" xr:uid="{43570C8A-CB4D-4358-85B1-2E4713ABCB00}"/>
+    <hyperlink ref="F26" r:id="rId23" xr:uid="{76E8E2B1-3133-4F64-A4EA-1C44D1AAC746}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>